--- a/config_Release/task_ocean_explore_week_server.xlsx
+++ b/config_Release/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="224">
   <si>
     <t>id|任务id</t>
   </si>
@@ -996,20 +996,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>prop_3d_fish_wild</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
   </si>
 </sst>
 </file>
@@ -7097,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10648,8 +10638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10814,10 +10804,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
@@ -10872,11 +10862,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
@@ -10934,8 +10923,7 @@
         <v>222</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -10993,8 +10981,7 @@
         <v>223</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -11052,8 +11039,7 @@
         <v>222</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
@@ -11111,8 +11097,7 @@
         <v>223</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
@@ -11586,7 +11571,7 @@
         <v>222</v>
       </c>
       <c r="D47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="14">
         <v>1</v>
@@ -11644,7 +11629,7 @@
         <v>223</v>
       </c>
       <c r="D50" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="14">
         <v>1</v>
@@ -11702,7 +11687,7 @@
         <v>222</v>
       </c>
       <c r="D53" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" s="14">
         <v>1</v>
@@ -11760,7 +11745,7 @@
         <v>223</v>
       </c>
       <c r="D56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="14">
         <v>1</v>
@@ -11818,7 +11803,7 @@
         <v>222</v>
       </c>
       <c r="D59" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="14">
         <v>1</v>
@@ -11876,7 +11861,7 @@
         <v>223</v>
       </c>
       <c r="D62" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="14">
         <v>1</v>

--- a/config_Release/task_ocean_explore_week_server.xlsx
+++ b/config_Release/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">award_data!$C$1:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">condition!$A$1:$F$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="222">
   <si>
     <t>id|任务id</t>
   </si>
@@ -126,9 +127,6 @@
   </si>
   <si>
     <t>fish_prop</t>
-  </si>
-  <si>
-    <t>fish_game_id</t>
   </si>
   <si>
     <t>base_fish_id</t>
@@ -299,9 +297,6 @@
     <t>捕获黄金鱼10条</t>
   </si>
   <si>
-    <t>捕鱼获得金币300万</t>
-  </si>
-  <si>
     <t>捕获狮子鱼20条</t>
   </si>
   <si>
@@ -380,9 +375,6 @@
     <t>捕获任意黄金鱼8条</t>
   </si>
   <si>
-    <t>累计开炮数2000发</t>
-  </si>
-  <si>
     <t>ocean_explore_week_children_task</t>
   </si>
   <si>
@@ -391,28 +383,10 @@
   </si>
   <si>
     <t>2,3,4,5</t>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_spend</t>
-  </si>
-  <si>
-    <t>buyu_3d_spend</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_game_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_fish_bullet_item</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_fish_bullet_item</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -530,13 +504,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,34,35,36,21,</t>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,34,35,36,21,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -667,23 +634,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>3,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7,</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -850,9 +800,6 @@
     <t>捕鱼任意鱼1000条（10000倍炮以上）</t>
   </si>
   <si>
-    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
-  </si>
-  <si>
     <t>捕获100倍以上的鱼50条（10000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -873,23 +820,6 @@
   </si>
   <si>
     <t>16,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -949,31 +879,90 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼获得金币1000万（5000倍炮以上）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>17,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>23,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,40,41,43,46,47,48,49,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,22,23,24,25,26,27,</t>
+  </si>
+  <si>
+    <t>22,23,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_fish_3d_bullet_item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_rate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,34,35,36,21,59,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>18,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>23,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <t>26,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>38,40,41,43,46,47,48,49,</t>
+    <t>15018,7</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <t>add_task_progress "106846",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼活动鱼10条（5000倍炮以上）</t>
+    <t>,100000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -981,25 +970,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼获得金币1亿（10000倍炮以上）</t>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,22,23,24,25,26,27,</t>
-  </si>
-  <si>
-    <t>22,23,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1290,6 +1262,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1568,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1603,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -1644,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>12</v>
@@ -1656,7 +1632,7 @@
         <v>15001</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
@@ -1682,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>12</v>
@@ -1694,7 +1670,7 @@
         <v>15002</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="19">
         <v>1</v>
@@ -1717,10 +1693,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>12</v>
@@ -1729,7 +1705,7 @@
         <v>15003</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
@@ -1752,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>12</v>
@@ -1764,7 +1740,7 @@
         <v>15004</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="19">
         <v>1</v>
@@ -1787,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>12</v>
@@ -1799,7 +1775,7 @@
         <v>15005</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
@@ -1822,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>12</v>
@@ -1834,7 +1810,7 @@
         <v>15006</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -1857,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>12</v>
@@ -1869,7 +1845,7 @@
         <v>15007</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
@@ -1892,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>12</v>
@@ -1904,7 +1880,7 @@
         <v>15008</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
@@ -1927,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>12</v>
@@ -1939,7 +1915,7 @@
         <v>15009</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="19">
         <v>1</v>
@@ -1962,10 +1938,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>12</v>
@@ -1974,7 +1950,7 @@
         <v>15010</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I11" s="19">
         <v>1</v>
@@ -1997,19 +1973,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19">
         <v>15011</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I12" s="19">
         <v>1</v>
@@ -2032,19 +2008,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="19">
         <v>15012</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="19">
         <v>1</v>
@@ -2067,19 +2043,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="19">
         <v>15013</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I14" s="19">
         <v>1</v>
@@ -2102,20 +2078,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="19">
         <v>15014</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="18">
         <v>1</v>
@@ -2139,20 +2115,20 @@
         <v>1</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="19">
         <v>15015</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="18">
         <v>1</v>
@@ -2176,20 +2152,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="19">
         <v>15016</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I17" s="18">
         <v>1</v>
@@ -2213,20 +2189,20 @@
         <v>1</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="19">
         <v>15017</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="18">
         <v>1</v>
@@ -2250,20 +2226,20 @@
         <v>1</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="19">
         <v>15018</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" s="18">
         <v>1</v>
@@ -2287,20 +2263,20 @@
         <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="19">
         <v>15019</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" s="18">
         <v>1</v>
@@ -2324,20 +2300,20 @@
         <v>1</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="19">
         <v>15020</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
@@ -2361,20 +2337,20 @@
         <v>1</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="19">
         <v>15021</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
@@ -2398,20 +2374,20 @@
         <v>1</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="19">
         <v>15022</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="18">
         <v>1</v>
@@ -2435,20 +2411,20 @@
         <v>1</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="19">
         <v>15023</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="18">
         <v>1</v>
@@ -2472,20 +2448,20 @@
         <v>1</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G25" s="19">
         <v>15024</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="18">
         <v>1</v>
@@ -2509,20 +2485,20 @@
         <v>1</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="19">
         <v>15025</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26" s="18">
         <v>1</v>
@@ -2546,20 +2522,20 @@
         <v>1</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="19">
         <v>15026</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="18">
         <v>1</v>
@@ -2583,20 +2559,20 @@
         <v>1</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="19">
         <v>15027</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I28" s="19">
         <v>1</v>
@@ -2620,20 +2596,20 @@
         <v>1</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="19">
         <v>15028</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29" s="19">
         <v>1</v>
@@ -2657,20 +2633,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="19">
         <v>15029</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" s="19">
         <v>1</v>
@@ -2694,20 +2670,20 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="19">
         <v>15030</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="19">
         <v>1</v>
@@ -2731,20 +2707,20 @@
         <v>1</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="19">
         <v>15031</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="19">
         <v>1</v>
@@ -2768,20 +2744,20 @@
         <v>1</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="19">
         <v>15032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I33" s="19">
         <v>1</v>
@@ -2805,20 +2781,20 @@
         <v>1</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="19">
         <v>15033</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" s="19">
         <v>1</v>
@@ -2842,20 +2818,20 @@
         <v>1</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="19">
         <v>15034</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I35" s="19">
         <v>1</v>
@@ -2879,20 +2855,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="19">
         <v>15035</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36" s="19">
         <v>1</v>
@@ -2916,20 +2892,20 @@
         <v>1</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="19">
         <v>15036</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37" s="19">
         <v>1</v>
@@ -2953,20 +2929,20 @@
         <v>1</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="19">
         <v>15037</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I38" s="19">
         <v>1</v>
@@ -2990,20 +2966,20 @@
         <v>1</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="19">
         <v>15038</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I39" s="19">
         <v>1</v>
@@ -3027,20 +3003,20 @@
         <v>1</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="19">
         <v>15039</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I40" s="19">
         <v>1</v>
@@ -3064,20 +3040,20 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="19">
         <v>15040</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I41" s="18">
         <v>1</v>
@@ -3101,20 +3077,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="19">
         <v>15041</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I42" s="18">
         <v>1</v>
@@ -3138,20 +3114,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="19">
         <v>15042</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I43" s="18">
         <v>1</v>
@@ -3175,20 +3151,20 @@
         <v>1</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="19">
         <v>15043</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44" s="18">
         <v>1</v>
@@ -3212,20 +3188,20 @@
         <v>1</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="19">
         <v>15044</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" s="18">
         <v>1</v>
@@ -3249,20 +3225,20 @@
         <v>1</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="19">
         <v>15045</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I46" s="18">
         <v>1</v>
@@ -3286,20 +3262,20 @@
         <v>1</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="19">
         <v>15046</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I47" s="18">
         <v>1</v>
@@ -3323,20 +3299,20 @@
         <v>1</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="19">
         <v>15047</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="18">
         <v>1</v>
@@ -3360,20 +3336,20 @@
         <v>1</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="19">
         <v>15048</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I49" s="18">
         <v>1</v>
@@ -3397,20 +3373,20 @@
         <v>1</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="19">
         <v>15049</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I50" s="18">
         <v>1</v>
@@ -3434,20 +3410,20 @@
         <v>1</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="19">
         <v>15050</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I51" s="18">
         <v>1</v>
@@ -3471,20 +3447,20 @@
         <v>1</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="19">
         <v>15051</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I52" s="18">
         <v>1</v>
@@ -3508,20 +3484,20 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="19">
         <v>15052</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I53" s="18">
         <v>1</v>
@@ -3545,20 +3521,20 @@
         <v>1</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="19">
         <v>15053</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I54" s="19">
         <v>1</v>
@@ -3582,20 +3558,20 @@
         <v>1</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="19">
         <v>15054</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I55" s="19">
         <v>1</v>
@@ -3619,20 +3595,20 @@
         <v>1</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="19">
         <v>15055</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I56" s="19">
         <v>1</v>
@@ -3656,20 +3632,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="19">
         <v>15056</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I57" s="19">
         <v>1</v>
@@ -3693,20 +3669,20 @@
         <v>1</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="19">
         <v>15057</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I58" s="19">
         <v>1</v>
@@ -3730,20 +3706,20 @@
         <v>1</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="19">
         <v>15058</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I59" s="19">
         <v>1</v>
@@ -3767,19 +3743,19 @@
         <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="19">
         <v>15059</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I60" s="25">
         <v>1</v>
@@ -3802,19 +3778,19 @@
         <v>1</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="19">
         <v>15060</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I61" s="25">
         <v>1</v>
@@ -3837,19 +3813,19 @@
         <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="19">
         <v>15061</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I62" s="25">
         <v>1</v>
@@ -3872,19 +3848,19 @@
         <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="19">
         <v>15062</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I63" s="25">
         <v>1</v>
@@ -3907,19 +3883,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="19">
         <v>15063</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I64" s="25">
         <v>1</v>
@@ -3942,19 +3918,19 @@
         <v>1</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="19">
         <v>15064</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I65" s="25">
         <v>1</v>
@@ -3977,19 +3953,19 @@
         <v>1</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="19">
         <v>15065</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I66" s="25">
         <v>1</v>
@@ -4012,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F67" s="21" t="s">
         <v>12</v>
@@ -4024,7 +4000,7 @@
         <v>15066</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I67" s="21">
         <v>1</v>
@@ -4047,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>12</v>
@@ -4059,7 +4035,7 @@
         <v>15067</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I68" s="21">
         <v>1</v>
@@ -4082,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>12</v>
@@ -4094,7 +4070,7 @@
         <v>15068</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I69" s="21">
         <v>1</v>
@@ -4117,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>12</v>
@@ -4129,7 +4105,7 @@
         <v>15069</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I70" s="21">
         <v>1</v>
@@ -4152,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>12</v>
@@ -4164,7 +4140,7 @@
         <v>15070</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I71" s="21">
         <v>1</v>
@@ -4186,11 +4162,11 @@
       <c r="B72" s="21">
         <v>1</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>194</v>
+      <c r="C72" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F72" s="21" t="s">
         <v>12</v>
@@ -4199,7 +4175,7 @@
         <v>15071</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I72" s="21">
         <v>1</v>
@@ -4879,9 +4855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4905,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>15</v>
@@ -4920,7 +4896,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" s="11"/>
     </row>
@@ -4945,7 +4921,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1">
@@ -4969,7 +4945,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1">
@@ -4993,7 +4969,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="16" customFormat="1">
@@ -5017,7 +4993,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="16" customFormat="1">
@@ -5041,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1">
@@ -5065,7 +5041,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1">
@@ -5089,7 +5065,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1">
@@ -5113,7 +5089,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1">
@@ -5137,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1">
@@ -5161,7 +5137,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="16" customFormat="1">
@@ -5185,7 +5161,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="16" customFormat="1">
@@ -5209,7 +5185,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="16" customFormat="1">
@@ -5233,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="16" customFormat="1">
@@ -5257,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="16" customFormat="1">
@@ -5281,7 +5257,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1">
@@ -5305,7 +5281,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="16" customFormat="1">
@@ -5329,7 +5305,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1">
@@ -5353,7 +5329,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1">
@@ -5377,7 +5353,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1">
@@ -5401,7 +5377,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1">
@@ -5425,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1">
@@ -5449,7 +5425,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1">
@@ -5473,7 +5449,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="27" customFormat="1">
@@ -5497,7 +5473,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="27" customFormat="1">
@@ -5521,7 +5497,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="27" customFormat="1">
@@ -5545,7 +5521,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="27" customFormat="1">
@@ -5569,7 +5545,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="27" customFormat="1">
@@ -5593,7 +5569,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1">
@@ -5617,7 +5593,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="27" customFormat="1">
@@ -5641,7 +5617,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1">
@@ -5665,7 +5641,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1">
@@ -5689,7 +5665,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5713,7 +5689,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="27" customFormat="1">
@@ -5737,7 +5713,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="27" customFormat="1">
@@ -5761,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="27" customFormat="1">
@@ -5785,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1">
@@ -5809,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1">
@@ -5833,7 +5809,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1">
@@ -5857,7 +5833,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1">
@@ -5881,7 +5857,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1">
@@ -5905,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1">
@@ -5929,7 +5905,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1">
@@ -5953,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1">
@@ -5977,7 +5953,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1">
@@ -6001,7 +5977,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1">
@@ -6025,7 +6001,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1">
@@ -6049,7 +6025,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="27" customFormat="1">
@@ -6073,7 +6049,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="27" customFormat="1">
@@ -6097,7 +6073,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="27" customFormat="1">
@@ -6121,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="27" customFormat="1">
@@ -6145,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="27" customFormat="1">
@@ -6169,7 +6145,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="27" customFormat="1">
@@ -6193,7 +6169,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="27" customFormat="1">
@@ -6217,7 +6193,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="27" customFormat="1">
@@ -6241,7 +6217,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="27" customFormat="1">
@@ -6265,7 +6241,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="16" customFormat="1">
@@ -6280,7 +6256,7 @@
         <v>57</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F58" s="23">
         <v>57</v>
@@ -6289,7 +6265,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="16" customFormat="1">
@@ -6304,7 +6280,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F59" s="23">
         <v>58</v>
@@ -6313,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6337,7 +6313,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6361,7 +6337,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6385,7 +6361,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6409,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6432,8 +6408,8 @@
       <c r="G64" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>187</v>
+      <c r="H64" s="42" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6448,7 +6424,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F65" s="23">
         <v>64</v>
@@ -6457,7 +6433,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6481,7 +6457,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6505,7 +6481,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6529,7 +6505,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6553,7 +6529,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6577,7 +6553,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6601,7 +6577,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6625,7 +6601,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7087,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F67" sqref="A67:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7110,13 +7086,13 @@
         <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7130,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7147,13 +7123,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7164,10 +7140,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7178,13 +7154,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7195,13 +7171,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7212,13 +7188,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7229,13 +7205,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7246,13 +7222,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7263,13 +7239,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7280,13 +7256,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7297,13 +7273,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7314,13 +7290,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7331,13 +7307,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7355,7 +7331,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7366,14 +7342,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D16" s="28">
         <v>14</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7389,7 +7365,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="32"/>
       <c r="F17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7407,7 +7383,7 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7425,7 +7401,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7443,7 +7419,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7461,7 +7437,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7479,7 +7455,7 @@
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7497,7 +7473,7 @@
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7515,7 +7491,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7533,7 +7509,7 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7551,7 +7527,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7569,7 +7545,7 @@
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7587,7 +7563,7 @@
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7598,14 +7574,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="D29" s="34">
         <v>26</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7623,7 +7599,7 @@
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="23" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7641,7 +7617,7 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7659,7 +7635,7 @@
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7677,7 +7653,7 @@
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7695,7 +7671,7 @@
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7713,7 +7689,7 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7707,7 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7749,7 +7725,7 @@
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7767,7 +7743,7 @@
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7785,7 +7761,7 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7803,7 +7779,7 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="19" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7821,7 +7797,7 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7831,15 +7807,15 @@
       <c r="B42" s="28">
         <v>41</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>117</v>
+      <c r="C42" s="47" t="s">
+        <v>210</v>
       </c>
       <c r="D42" s="28">
         <v>39</v>
       </c>
       <c r="E42" s="32"/>
       <c r="F42" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7857,7 +7833,7 @@
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7875,7 +7851,7 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7893,7 +7869,7 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7911,7 +7887,7 @@
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7929,7 +7905,7 @@
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7947,7 +7923,7 @@
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7965,7 +7941,7 @@
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7983,7 +7959,7 @@
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8001,7 +7977,7 @@
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8019,7 +7995,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8037,7 +8013,7 @@
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8055,7 +8031,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8066,14 +8042,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="D55" s="37">
         <v>52</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8091,7 +8067,7 @@
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8109,7 +8085,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8127,7 +8103,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8145,7 +8121,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8163,7 +8139,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8181,7 +8157,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8199,7 +8175,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8217,7 +8193,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8235,7 +8211,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="25" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8253,7 +8229,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8271,7 +8247,7 @@
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8289,7 +8265,7 @@
       </c>
       <c r="E67" s="32"/>
       <c r="F67" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8307,7 +8283,7 @@
       </c>
       <c r="E68" s="32"/>
       <c r="F68" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8325,7 +8301,7 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8343,7 +8319,7 @@
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8361,7 +8337,7 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8379,7 +8355,7 @@
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="26" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8391,10 +8367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A111"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8438,13 +8414,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8455,16 +8431,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8478,13 +8454,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8498,13 +8474,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8515,16 +8491,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8535,16 +8511,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8555,16 +8531,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8575,16 +8551,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8595,16 +8571,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8615,16 +8591,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8635,16 +8611,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8655,16 +8631,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8678,13 +8654,13 @@
         <v>31</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" s="28">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8695,16 +8671,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8715,16 +8691,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8735,16 +8711,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8755,16 +8731,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8775,16 +8751,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8795,16 +8771,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8815,16 +8791,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E21" s="28">
         <v>2</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8835,16 +8811,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E22" s="28">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8855,16 +8831,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="E23" s="28">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8875,16 +8851,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E24" s="28">
         <v>2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8895,16 +8871,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="E25" s="28">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="35" customFormat="1">
@@ -8915,16 +8891,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="34">
+        <v>500</v>
       </c>
       <c r="E26" s="34">
-        <v>2</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="35" customFormat="1">
@@ -8932,10 +8908,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D27" s="34">
         <v>500</v>
@@ -8944,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="35" customFormat="1">
@@ -8952,19 +8928,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D28" s="34">
+        <v>500</v>
       </c>
       <c r="E28" s="34">
-        <v>2</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="35" customFormat="1">
@@ -8972,19 +8948,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="34">
-        <v>500</v>
+        <v>33</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="E29" s="34">
-        <v>3</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>197</v>
+        <v>2</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="35" customFormat="1">
@@ -8992,10 +8968,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D30" s="34">
         <v>500</v>
@@ -9004,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="35" customFormat="1">
@@ -9012,19 +8988,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E31" s="34">
         <v>2</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="35" customFormat="1">
@@ -9032,10 +9008,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D32" s="34">
         <v>500</v>
@@ -9044,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="35" customFormat="1">
@@ -9052,19 +9028,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E33" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="35" customFormat="1">
@@ -9072,10 +9048,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D34" s="34">
         <v>500</v>
@@ -9084,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="35" customFormat="1">
@@ -9092,19 +9068,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E35" s="34">
         <v>3</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="35" customFormat="1">
@@ -9112,10 +9088,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D36" s="34">
         <v>500</v>
@@ -9124,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="35" customFormat="1">
@@ -9132,19 +9108,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E37" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="35" customFormat="1">
@@ -9152,10 +9128,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D38" s="34">
         <v>500</v>
@@ -9164,7 +9140,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="35" customFormat="1">
@@ -9172,19 +9148,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E39" s="34">
         <v>2</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="35" customFormat="1">
@@ -9192,10 +9168,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D40" s="34">
         <v>500</v>
@@ -9204,7 +9180,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="35" customFormat="1">
@@ -9212,13 +9188,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="34">
+        <v>34</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>34</v>
-      </c>
       <c r="D41" s="39" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E41" s="34">
         <v>2</v>
@@ -9232,10 +9208,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D42" s="34">
         <v>500</v>
@@ -9244,7 +9220,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="35" customFormat="1">
@@ -9252,19 +9228,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="E43" s="34">
         <v>2</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="35" customFormat="1">
@@ -9272,10 +9248,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D44" s="34">
         <v>500</v>
@@ -9284,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="35" customFormat="1">
@@ -9292,19 +9268,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>147</v>
+        <v>33</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>213</v>
       </c>
       <c r="E45" s="34">
         <v>2</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="35" customFormat="1">
@@ -9312,10 +9288,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D46" s="34">
         <v>500</v>
@@ -9324,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="35" customFormat="1">
@@ -9332,19 +9308,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>131</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>199</v>
       </c>
       <c r="E47" s="34">
         <v>2</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>95</v>
+      <c r="F47" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="35" customFormat="1">
@@ -9352,10 +9328,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D48" s="34">
         <v>500</v>
@@ -9364,47 +9340,47 @@
         <v>3</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="35" customFormat="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="34">
-        <v>37</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E49" s="34">
-        <v>2</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="35" customFormat="1">
+      <c r="B49" s="28">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="28">
+        <v>3</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="34">
-        <v>37</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="34">
-        <v>500</v>
-      </c>
-      <c r="E50" s="34">
+      <c r="B50" s="28">
+        <v>39</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="28">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="28">
         <v>3</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>197</v>
+      <c r="F50" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9412,19 +9388,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1000</v>
       </c>
       <c r="E51" s="28">
-        <v>2</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9432,19 +9408,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="28">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="28">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="E52" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9452,19 +9428,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D53" s="28">
+        <v>1000</v>
       </c>
       <c r="E53" s="28">
-        <v>2</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>165</v>
+        <v>3</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9472,19 +9448,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="28">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="28">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="E54" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9492,10 +9468,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D55" s="28">
         <v>1000</v>
@@ -9504,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9512,19 +9488,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="28">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E56" s="28">
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9532,10 +9508,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="28">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D57" s="28">
         <v>1000</v>
@@ -9544,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9552,19 +9528,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="E58" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9572,10 +9548,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D59" s="28">
         <v>1000</v>
@@ -9584,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9592,19 +9568,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E60" s="28">
         <v>2</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9612,10 +9588,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D61" s="28">
         <v>1000</v>
@@ -9624,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9632,19 +9608,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E62" s="28">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9652,10 +9628,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="28">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D63" s="28">
         <v>1000</v>
@@ -9664,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9672,19 +9648,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E64" s="28">
         <v>2</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9692,10 +9668,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D65" s="28">
         <v>1000</v>
@@ -9704,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9712,19 +9688,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E66" s="28">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9732,10 +9708,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="28">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D67" s="28">
         <v>1000</v>
@@ -9744,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9752,19 +9728,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="E68" s="28">
         <v>2</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9772,10 +9748,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D69" s="28">
         <v>1000</v>
@@ -9784,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9792,19 +9768,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>205</v>
+        <v>33</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="E70" s="28">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9812,10 +9788,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D71" s="28">
         <v>1000</v>
@@ -9824,87 +9800,87 @@
         <v>3</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="38" customFormat="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="28">
-        <v>49</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="28">
-        <v>2</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="B72" s="37">
+        <v>51</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="37">
+        <v>3</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="38" customFormat="1">
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="28">
-        <v>49</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1000</v>
-      </c>
-      <c r="E73" s="28">
+      <c r="B73" s="37">
+        <v>52</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E73" s="37">
         <v>3</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="38" customFormat="1">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="28">
-        <v>50</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" s="28">
-        <v>2</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="B74" s="37">
+        <v>53</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="37">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="37">
+        <v>3</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="38" customFormat="1">
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="28">
-        <v>50</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="28">
-        <v>1000</v>
-      </c>
-      <c r="E75" s="28">
-        <v>3</v>
-      </c>
-      <c r="F75" s="18" t="s">
+      <c r="B75" s="37">
+        <v>54</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="44" t="s">
         <v>197</v>
+      </c>
+      <c r="E75" s="37">
+        <v>2</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1">
@@ -9912,19 +9888,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="37">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D76" s="37">
+        <v>5000</v>
       </c>
       <c r="E76" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1">
@@ -9932,19 +9908,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="37">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D77" s="37">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>215</v>
       </c>
       <c r="E77" s="37">
-        <v>3</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>197</v>
+        <v>2</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1">
@@ -9952,19 +9928,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="37">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D78" s="37">
+        <v>5000</v>
       </c>
       <c r="E78" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1">
@@ -9972,19 +9948,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="37">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" s="37">
-        <v>5000</v>
+        <v>33</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>198</v>
       </c>
       <c r="E79" s="37">
-        <v>3</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>197</v>
+        <v>2</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
@@ -9992,10 +9968,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="37">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D80" s="37">
         <v>5000</v>
@@ -10004,7 +9980,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
@@ -10012,19 +9988,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E81" s="37">
         <v>2</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>180</v>
+      <c r="F81" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
@@ -10032,10 +10008,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="37">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D82" s="37">
         <v>5000</v>
@@ -10044,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="38" customFormat="1">
@@ -10052,19 +10028,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="37">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E83" s="37">
         <v>2</v>
       </c>
-      <c r="F83" s="23" t="s">
-        <v>181</v>
+      <c r="F83" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="38" customFormat="1">
@@ -10072,10 +10048,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="37">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D84" s="37">
         <v>5000</v>
@@ -10084,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1">
@@ -10092,19 +10068,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="37">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="44" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E85" s="37">
         <v>2</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>182</v>
+      <c r="F85" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="38" customFormat="1">
@@ -10112,10 +10088,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="37">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D86" s="37">
         <v>5000</v>
@@ -10124,7 +10100,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="38" customFormat="1">
@@ -10132,19 +10108,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="37">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="44" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E87" s="37">
         <v>2</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
@@ -10152,10 +10128,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="37">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D88" s="37">
         <v>5000</v>
@@ -10164,7 +10140,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1">
@@ -10172,19 +10148,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="37">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="44" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="E89" s="37">
         <v>2</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
@@ -10192,10 +10168,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="37">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D90" s="37">
         <v>5000</v>
@@ -10204,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
@@ -10212,19 +10188,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="37">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="44" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="E91" s="37">
         <v>2</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
@@ -10232,10 +10208,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="37">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D92" s="37">
         <v>5000</v>
@@ -10244,7 +10220,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
@@ -10252,19 +10228,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="37">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>204</v>
+        <v>33</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="E93" s="37">
         <v>2</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
@@ -10272,10 +10248,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="37">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D94" s="37">
         <v>5000</v>
@@ -10284,127 +10260,127 @@
         <v>3</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="38" customFormat="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="37">
-        <v>61</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" s="37">
-        <v>2</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" s="38" customFormat="1">
+      <c r="B95" s="28">
+        <v>64</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E95" s="28">
+        <v>3</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="37">
-        <v>61</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D96" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E96" s="37">
-        <v>3</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" s="38" customFormat="1">
+      <c r="B96" s="28">
+        <v>65</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="28">
+        <v>2</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="37">
-        <v>62</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" s="37">
-        <v>2</v>
-      </c>
-      <c r="F97" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="38" customFormat="1">
+      <c r="B97" s="28">
+        <v>65</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E97" s="28">
+        <v>3</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="37">
-        <v>62</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E98" s="37">
-        <v>3</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="38" customFormat="1">
+      <c r="B98" s="28">
+        <v>66</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="28">
+        <v>2</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="37">
-        <v>63</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E99" s="37">
-        <v>2</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="38" customFormat="1">
+      <c r="B99" s="28">
+        <v>66</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E99" s="28">
+        <v>3</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="37">
-        <v>63</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="37">
-        <v>5000</v>
-      </c>
-      <c r="E100" s="37">
-        <v>3</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>197</v>
+      <c r="B100" s="28">
+        <v>67</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="28">
+        <v>2</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10412,19 +10388,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="28">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>115</v>
+        <v>184</v>
+      </c>
+      <c r="D101" s="28">
+        <v>10000</v>
       </c>
       <c r="E101" s="28">
-        <v>2</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>218</v>
+        <v>3</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10432,10 +10408,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="28">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D102" s="28">
         <v>10000</v>
@@ -10444,7 +10420,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10452,19 +10428,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="28" t="s">
         <v>213</v>
       </c>
       <c r="E103" s="28">
         <v>2</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10472,10 +10448,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D104" s="28">
         <v>10000</v>
@@ -10484,153 +10460,14 @@
         <v>3</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="6">
-        <v>104</v>
-      </c>
-      <c r="B105" s="28">
-        <v>66</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="28">
-        <v>2</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-      <c r="B106" s="28">
-        <v>66</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D106" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E106" s="28">
-        <v>3</v>
-      </c>
-      <c r="F106" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-      <c r="B107" s="28">
-        <v>67</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E107" s="28">
-        <v>2</v>
-      </c>
-      <c r="F107" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-      <c r="B108" s="28">
-        <v>67</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D108" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E108" s="28">
-        <v>3</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="6">
-        <v>108</v>
-      </c>
-      <c r="B109" s="28">
-        <v>68</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D109" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E109" s="28">
-        <v>3</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-      <c r="B110" s="28">
-        <v>69</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E110" s="28">
-        <v>2</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-      <c r="B111" s="28">
-        <v>69</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="D111" s="28">
-        <v>10000</v>
-      </c>
-      <c r="E111" s="28">
-        <v>3</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F104"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10638,7 +10475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -10662,25 +10499,25 @@
         <v>25</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1">
@@ -10691,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D2" s="14">
         <v>1000</v>
@@ -10700,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1">
@@ -10711,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
@@ -10728,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -10746,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10804,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10862,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10920,7 +10757,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10978,7 +10815,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -11036,7 +10873,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -11094,7 +10931,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -11152,7 +10989,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11568,7 +11405,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11626,7 +11463,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11684,7 +11521,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11742,7 +11579,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11800,7 +11637,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11858,7 +11695,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
@@ -11916,7 +11753,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="6">
         <v>2000</v>
@@ -14902,115 +14739,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>15001</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE($F$2,C2,$F$4)</f>
+        <v>add_task_progress "106846",15001,100000000</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>106846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
     </row>

--- a/config_Release/task_ocean_explore_week_server.xlsx
+++ b/config_Release/task_ocean_explore_week_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -966,11 +966,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕鱼活动鱼20条（10000倍炮以上）</t>
+    <t>捕获boss鱼5条（5000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕获boss鱼5条（5000倍炮以上）</t>
+    <t>捕鱼活动鱼10条（10000倍炮以上）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>110</v>
@@ -4855,9 +4855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6409,7 +6409,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6601,7 +6601,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:8">

--- a/config_Release/task_ocean_explore_week_server.xlsx
+++ b/config_Release/task_ocean_explore_week_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="232">
   <si>
     <t>id|任务id</t>
   </si>
@@ -396,74 +396,6 @@
   </si>
   <si>
     <t>"prop_3d_fish_frozen",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,22,23,24,25,26,27,</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -546,40 +478,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>5,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2,</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3,</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -769,18 +667,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>18,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>48,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -793,10 +679,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>23,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>38,40,41,43,46,47,48,49,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -805,13 +687,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>20,22,23,24,25,26,27,</t>
-  </si>
-  <si>
-    <t>22,23,25,26,27,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_coin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -852,10 +727,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>26,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>15018,7</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -951,6 +822,43 @@
   </si>
   <si>
     <t>捕鱼活动鱼8条（5000倍炮以上）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,63,</t>
+  </si>
+  <si>
+    <t>23,65,</t>
+  </si>
+  <si>
+    <t>26,67,</t>
+  </si>
+  <si>
+    <t>22,64,</t>
+  </si>
+  <si>
+    <t>25,66,</t>
+  </si>
+  <si>
+    <t>20,63,22,64,23,65,24,25,66,26,67,27,68,</t>
+  </si>
+  <si>
+    <t>27,68,</t>
+  </si>
+  <si>
+    <t>63,22,64,23,65,25,66,26,67,27,68,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,66,23,65,26,67,27,68,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,64,66,23,65,26,67,27,68,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,20,63,21,22,64,23,65,24,25,66,26,67,27,68,28,29,30,31,32,33,34,35,36,38,40,41,43,46,47,48,49,50,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1528,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1787,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="18" t="s">
@@ -1823,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="18" t="s">
@@ -1859,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="18" t="s">
@@ -1895,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="18" t="s">
@@ -1931,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="18" t="s">
@@ -2003,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="18" t="s">
@@ -2371,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="18" t="s">
@@ -2408,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="18" t="s">
@@ -2445,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="18" t="s">
@@ -2482,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="18" t="s">
@@ -2519,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="18" t="s">
@@ -2556,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D28" s="48"/>
       <c r="E28" s="18" t="s">
@@ -2593,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="18" t="s">
@@ -2630,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="18" t="s">
@@ -2667,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="18" t="s">
@@ -2704,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="18" t="s">
@@ -2741,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="18" t="s">
@@ -2778,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="18" t="s">
@@ -2815,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="18" t="s">
@@ -2852,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D36" s="48"/>
       <c r="E36" s="18" t="s">
@@ -2889,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="18" t="s">
@@ -2926,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="18" t="s">
@@ -2963,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="18" t="s">
@@ -3000,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D40" s="48"/>
       <c r="E40" s="18" t="s">
@@ -3037,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D41" s="52"/>
       <c r="E41" s="18" t="s">
@@ -3074,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D42" s="52"/>
       <c r="E42" s="18" t="s">
@@ -3111,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="18" t="s">
@@ -3148,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D44" s="52"/>
       <c r="E44" s="18" t="s">
@@ -3185,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="18" t="s">
@@ -3222,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D46" s="52"/>
       <c r="E46" s="18" t="s">
@@ -3259,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="18" t="s">
@@ -3296,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D48" s="52"/>
       <c r="E48" s="18" t="s">
@@ -3333,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D49" s="52"/>
       <c r="E49" s="18" t="s">
@@ -3370,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D50" s="52"/>
       <c r="E50" s="18" t="s">
@@ -3407,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="18" t="s">
@@ -3444,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D52" s="52"/>
       <c r="E52" s="18" t="s">
@@ -3481,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D53" s="52"/>
       <c r="E53" s="18" t="s">
@@ -3518,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="18" t="s">
@@ -3555,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D55" s="48"/>
       <c r="E55" s="18" t="s">
@@ -3592,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D56" s="48"/>
       <c r="E56" s="18" t="s">
@@ -3629,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D57" s="48"/>
       <c r="E57" s="18" t="s">
@@ -3666,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D58" s="48"/>
       <c r="E58" s="18" t="s">
@@ -3703,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="18" t="s">
@@ -3740,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D60" s="53"/>
       <c r="E60" s="18" t="s">
@@ -3776,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D61" s="53"/>
       <c r="E61" s="18" t="s">
@@ -3812,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D62" s="53"/>
       <c r="E62" s="18" t="s">
@@ -3848,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D63" s="53"/>
       <c r="E63" s="18" t="s">
@@ -3884,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D64" s="53"/>
       <c r="E64" s="18" t="s">
@@ -3920,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D65" s="53"/>
       <c r="E65" s="18" t="s">
@@ -3956,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="18" t="s">
@@ -3992,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>109</v>
@@ -4027,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>109</v>
@@ -4062,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>109</v>
@@ -4097,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>109</v>
@@ -4132,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>109</v>
@@ -4167,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>109</v>
@@ -5043,7 +4951,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="15" customFormat="1">
@@ -5067,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1">
@@ -5091,7 +4999,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="15" customFormat="1">
@@ -5115,7 +5023,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1">
@@ -5139,7 +5047,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1">
@@ -5187,7 +5095,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1">
@@ -5427,7 +5335,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1">
@@ -5451,7 +5359,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="26" customFormat="1">
@@ -5475,7 +5383,7 @@
         <v>19</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="26" customFormat="1">
@@ -5499,7 +5407,7 @@
         <v>19</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="26" customFormat="1">
@@ -5523,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="26" customFormat="1">
@@ -5547,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="26" customFormat="1">
@@ -5571,7 +5479,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="26" customFormat="1">
@@ -5595,7 +5503,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="26" customFormat="1">
@@ -5619,7 +5527,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="26" customFormat="1">
@@ -5643,7 +5551,7 @@
         <v>19</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="26" customFormat="1">
@@ -5667,7 +5575,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1">
@@ -5691,7 +5599,7 @@
         <v>19</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="26" customFormat="1">
@@ -5715,7 +5623,7 @@
         <v>19</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="26" customFormat="1">
@@ -5739,7 +5647,7 @@
         <v>19</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="26" customFormat="1">
@@ -5763,7 +5671,7 @@
         <v>19</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="15" customFormat="1">
@@ -5787,7 +5695,7 @@
         <v>19</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="15" customFormat="1">
@@ -5811,7 +5719,7 @@
         <v>19</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="15" customFormat="1">
@@ -5835,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="26" customFormat="1">
@@ -5859,7 +5767,7 @@
         <v>19</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="26" customFormat="1">
@@ -5883,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="26" customFormat="1">
@@ -5907,7 +5815,7 @@
         <v>19</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="26" customFormat="1">
@@ -5931,7 +5839,7 @@
         <v>19</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="26" customFormat="1">
@@ -5955,7 +5863,7 @@
         <v>19</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="26" customFormat="1">
@@ -5979,7 +5887,7 @@
         <v>19</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="26" customFormat="1">
@@ -6003,7 +5911,7 @@
         <v>19</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="26" customFormat="1">
@@ -6027,7 +5935,7 @@
         <v>19</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="26" customFormat="1">
@@ -6051,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="26" customFormat="1">
@@ -6075,7 +5983,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="26" customFormat="1">
@@ -6099,7 +6007,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="26" customFormat="1">
@@ -6123,7 +6031,7 @@
         <v>19</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="26" customFormat="1">
@@ -6147,7 +6055,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="26" customFormat="1">
@@ -6171,7 +6079,7 @@
         <v>19</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="26" customFormat="1">
@@ -6195,7 +6103,7 @@
         <v>19</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="26" customFormat="1">
@@ -6219,7 +6127,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="26" customFormat="1">
@@ -6243,7 +6151,7 @@
         <v>19</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="15" customFormat="1">
@@ -6267,7 +6175,7 @@
         <v>19</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="15" customFormat="1">
@@ -6282,7 +6190,7 @@
         <v>58</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F59" s="22">
         <v>58</v>
@@ -6291,7 +6199,7 @@
         <v>19</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6315,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -6339,7 +6247,7 @@
         <v>19</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -6363,7 +6271,7 @@
         <v>19</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6387,7 +6295,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -6411,7 +6319,7 @@
         <v>19</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -6435,7 +6343,7 @@
         <v>19</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -6459,7 +6367,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6483,7 +6391,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6507,7 +6415,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -6531,7 +6439,7 @@
         <v>19</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6555,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -6579,7 +6487,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6603,7 +6511,7 @@
         <v>19</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7125,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7156,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -7173,7 +7081,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -7190,7 +7098,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -7207,7 +7115,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -7224,7 +7132,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -7344,7 +7252,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D16" s="27">
         <v>14</v>
@@ -7529,7 +7437,7 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7565,7 +7473,7 @@
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7576,14 +7484,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D29" s="33">
         <v>26</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7601,7 +7509,7 @@
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="22" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7619,7 +7527,7 @@
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7637,7 +7545,7 @@
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="22" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7655,7 +7563,7 @@
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="22" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7673,7 +7581,7 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7691,7 +7599,7 @@
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7709,7 +7617,7 @@
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7727,7 +7635,7 @@
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7745,7 +7653,7 @@
       </c>
       <c r="E38" s="34"/>
       <c r="F38" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7763,7 +7671,7 @@
       </c>
       <c r="E39" s="34"/>
       <c r="F39" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7781,7 +7689,7 @@
       </c>
       <c r="E40" s="34"/>
       <c r="F40" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7799,7 +7707,7 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7810,14 +7718,14 @@
         <v>41</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D42" s="27">
         <v>39</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7835,7 +7743,7 @@
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7853,7 +7761,7 @@
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7871,7 +7779,7 @@
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7889,7 +7797,7 @@
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7907,7 +7815,7 @@
       </c>
       <c r="E47" s="31"/>
       <c r="F47" s="17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7925,7 +7833,7 @@
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7943,7 +7851,7 @@
       </c>
       <c r="E49" s="31"/>
       <c r="F49" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7961,7 +7869,7 @@
       </c>
       <c r="E50" s="31"/>
       <c r="F50" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7979,7 +7887,7 @@
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7997,7 +7905,7 @@
       </c>
       <c r="E52" s="31"/>
       <c r="F52" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8015,7 +7923,7 @@
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8033,7 +7941,7 @@
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8044,14 +7952,14 @@
         <v>54</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D55" s="36">
         <v>52</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8069,7 +7977,7 @@
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8087,7 +7995,7 @@
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8105,7 +8013,7 @@
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8123,7 +8031,7 @@
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8141,7 +8049,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8159,7 +8067,7 @@
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8177,7 +8085,7 @@
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8195,7 +8103,7 @@
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8213,7 +8121,7 @@
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8231,7 +8139,7 @@
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8249,7 +8157,7 @@
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8267,7 +8175,7 @@
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8285,7 +8193,7 @@
       </c>
       <c r="E68" s="31"/>
       <c r="F68" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8303,7 +8211,7 @@
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8321,7 +8229,7 @@
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8339,7 +8247,7 @@
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8357,7 +8265,7 @@
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8371,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D4:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8496,7 +8404,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -8516,7 +8424,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -8536,7 +8444,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -8556,7 +8464,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -8576,7 +8484,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -8596,7 +8504,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -8616,13 +8524,13 @@
         <v>113</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8636,7 +8544,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -8696,7 +8604,7 @@
         <v>113</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="27">
         <v>2</v>
@@ -8716,7 +8624,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E17" s="27">
         <v>2</v>
@@ -8736,7 +8644,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E18" s="27">
         <v>2</v>
@@ -8756,7 +8664,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E19" s="27">
         <v>2</v>
@@ -8776,7 +8684,7 @@
         <v>113</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="27">
         <v>2</v>
@@ -8796,7 +8704,7 @@
         <v>113</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="E21" s="27">
         <v>2</v>
@@ -8816,7 +8724,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="E22" s="27">
         <v>2</v>
@@ -8836,7 +8744,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E23" s="27">
         <v>2</v>
@@ -8856,13 +8764,13 @@
         <v>113</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="E24" s="27">
         <v>2</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8876,7 +8784,7 @@
         <v>113</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E25" s="27">
         <v>2</v>
@@ -8893,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D26" s="33">
         <v>500</v>
@@ -8902,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="34" customFormat="1">
@@ -8913,7 +8821,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D27" s="33">
         <v>500</v>
@@ -8922,7 +8830,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="34" customFormat="1">
@@ -8933,7 +8841,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D28" s="33">
         <v>500</v>
@@ -8942,7 +8850,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="34" customFormat="1">
@@ -8956,7 +8864,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E29" s="33">
         <v>2</v>
@@ -8973,7 +8881,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D30" s="33">
         <v>500</v>
@@ -8982,7 +8890,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="34" customFormat="1">
@@ -8996,7 +8904,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E31" s="33">
         <v>2</v>
@@ -9013,7 +8921,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D32" s="33">
         <v>500</v>
@@ -9022,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="34" customFormat="1">
@@ -9036,7 +8944,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E33" s="33">
         <v>3</v>
@@ -9053,7 +8961,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D34" s="33">
         <v>500</v>
@@ -9062,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="34" customFormat="1">
@@ -9076,7 +8984,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E35" s="33">
         <v>3</v>
@@ -9093,7 +9001,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D36" s="33">
         <v>500</v>
@@ -9102,7 +9010,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="34" customFormat="1">
@@ -9116,7 +9024,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="E37" s="33">
         <v>2</v>
@@ -9133,7 +9041,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D38" s="33">
         <v>500</v>
@@ -9142,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="34" customFormat="1">
@@ -9156,7 +9064,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="E39" s="33">
         <v>2</v>
@@ -9173,7 +9081,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D40" s="33">
         <v>500</v>
@@ -9182,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="34" customFormat="1">
@@ -9196,7 +9104,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="E41" s="33">
         <v>2</v>
@@ -9213,7 +9121,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D42" s="33">
         <v>500</v>
@@ -9222,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="34" customFormat="1">
@@ -9236,7 +9144,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E43" s="33">
         <v>2</v>
@@ -9253,7 +9161,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D44" s="33">
         <v>500</v>
@@ -9262,7 +9170,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="34" customFormat="1">
@@ -9276,7 +9184,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E45" s="33">
         <v>2</v>
@@ -9293,7 +9201,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D46" s="33">
         <v>500</v>
@@ -9302,7 +9210,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="34" customFormat="1">
@@ -9316,13 +9224,13 @@
         <v>33</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E47" s="33">
         <v>2</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="34" customFormat="1">
@@ -9333,7 +9241,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D48" s="33">
         <v>500</v>
@@ -9342,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9353,7 +9261,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D49" s="27">
         <v>1000</v>
@@ -9362,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9373,7 +9281,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D50" s="27">
         <v>1000</v>
@@ -9382,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9393,7 +9301,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D51" s="27">
         <v>1000</v>
@@ -9402,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9416,13 +9324,13 @@
         <v>33</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E52" s="27">
         <v>2</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9433,7 +9341,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D53" s="27">
         <v>1000</v>
@@ -9442,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9456,13 +9364,13 @@
         <v>33</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E54" s="27">
         <v>2</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9473,7 +9381,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D55" s="27">
         <v>1000</v>
@@ -9482,7 +9390,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9496,13 +9404,13 @@
         <v>33</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E56" s="27">
         <v>2</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9513,7 +9421,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D57" s="27">
         <v>1000</v>
@@ -9522,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9536,13 +9444,13 @@
         <v>33</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E58" s="27">
         <v>3</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9553,7 +9461,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D59" s="27">
         <v>1000</v>
@@ -9562,7 +9470,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9576,13 +9484,13 @@
         <v>33</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="E60" s="27">
         <v>2</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9593,7 +9501,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D61" s="27">
         <v>1000</v>
@@ -9602,7 +9510,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9616,13 +9524,13 @@
         <v>33</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="E62" s="27">
         <v>2</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9633,7 +9541,7 @@
         <v>46</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D63" s="27">
         <v>1000</v>
@@ -9642,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9656,13 +9564,13 @@
         <v>33</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="E64" s="27">
         <v>2</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9673,7 +9581,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D65" s="27">
         <v>1000</v>
@@ -9682,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9696,13 +9604,13 @@
         <v>33</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E66" s="27">
         <v>2</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9713,7 +9621,7 @@
         <v>48</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D67" s="27">
         <v>1000</v>
@@ -9722,7 +9630,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9736,13 +9644,13 @@
         <v>33</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="E68" s="27">
         <v>2</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9753,7 +9661,7 @@
         <v>49</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D69" s="27">
         <v>1000</v>
@@ -9762,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9776,13 +9684,13 @@
         <v>33</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E70" s="27">
         <v>2</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9793,7 +9701,7 @@
         <v>50</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D71" s="27">
         <v>1000</v>
@@ -9802,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="37" customFormat="1">
@@ -9813,7 +9721,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D72" s="36">
         <v>5000</v>
@@ -9822,7 +9730,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="37" customFormat="1">
@@ -9833,7 +9741,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D73" s="36">
         <v>5000</v>
@@ -9842,7 +9750,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="37" customFormat="1">
@@ -9853,7 +9761,7 @@
         <v>53</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D74" s="36">
         <v>5000</v>
@@ -9862,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="37" customFormat="1">
@@ -9876,13 +9784,13 @@
         <v>33</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E75" s="36">
         <v>2</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="37" customFormat="1">
@@ -9893,7 +9801,7 @@
         <v>54</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D76" s="36">
         <v>5000</v>
@@ -9902,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="37" customFormat="1">
@@ -9916,13 +9824,13 @@
         <v>33</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E77" s="36">
         <v>2</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="37" customFormat="1">
@@ -9933,7 +9841,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D78" s="36">
         <v>5000</v>
@@ -9942,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="37" customFormat="1">
@@ -9956,13 +9864,13 @@
         <v>33</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="E79" s="36">
         <v>2</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="37" customFormat="1">
@@ -9973,7 +9881,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D80" s="36">
         <v>5000</v>
@@ -9982,7 +9890,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="37" customFormat="1">
@@ -9996,13 +9904,13 @@
         <v>33</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E81" s="36">
         <v>2</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="37" customFormat="1">
@@ -10013,7 +9921,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D82" s="36">
         <v>5000</v>
@@ -10022,7 +9930,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="37" customFormat="1">
@@ -10036,13 +9944,13 @@
         <v>33</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="E83" s="36">
         <v>2</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="37" customFormat="1">
@@ -10053,7 +9961,7 @@
         <v>58</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D84" s="36">
         <v>5000</v>
@@ -10062,7 +9970,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="37" customFormat="1">
@@ -10076,13 +9984,13 @@
         <v>33</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="E85" s="36">
         <v>2</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="37" customFormat="1">
@@ -10093,7 +10001,7 @@
         <v>59</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D86" s="36">
         <v>5000</v>
@@ -10102,7 +10010,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="37" customFormat="1">
@@ -10116,13 +10024,13 @@
         <v>33</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="E87" s="36">
         <v>2</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="37" customFormat="1">
@@ -10133,7 +10041,7 @@
         <v>60</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D88" s="36">
         <v>5000</v>
@@ -10142,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="37" customFormat="1">
@@ -10156,13 +10064,13 @@
         <v>33</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E89" s="36">
         <v>2</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="37" customFormat="1">
@@ -10173,7 +10081,7 @@
         <v>61</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D90" s="36">
         <v>5000</v>
@@ -10182,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="37" customFormat="1">
@@ -10196,13 +10104,13 @@
         <v>33</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="E91" s="36">
         <v>2</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="37" customFormat="1">
@@ -10213,7 +10121,7 @@
         <v>62</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D92" s="36">
         <v>5000</v>
@@ -10222,7 +10130,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="37" customFormat="1">
@@ -10236,13 +10144,13 @@
         <v>33</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E93" s="36">
         <v>2</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="37" customFormat="1">
@@ -10253,7 +10161,7 @@
         <v>63</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D94" s="36">
         <v>5000</v>
@@ -10262,7 +10170,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10273,7 +10181,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D95" s="27">
         <v>10000</v>
@@ -10282,7 +10190,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10296,13 +10204,13 @@
         <v>33</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="E96" s="27">
         <v>2</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10313,7 +10221,7 @@
         <v>65</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D97" s="27">
         <v>10000</v>
@@ -10322,7 +10230,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10336,13 +10244,13 @@
         <v>33</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E98" s="27">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10353,7 +10261,7 @@
         <v>66</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D99" s="27">
         <v>10000</v>
@@ -10362,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10376,13 +10284,13 @@
         <v>33</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E100" s="27">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10393,7 +10301,7 @@
         <v>67</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D101" s="27">
         <v>10000</v>
@@ -10402,7 +10310,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10413,7 +10321,7 @@
         <v>68</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D102" s="27">
         <v>10000</v>
@@ -10422,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10436,13 +10344,13 @@
         <v>33</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E103" s="27">
         <v>2</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10453,7 +10361,7 @@
         <v>69</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D104" s="27">
         <v>10000</v>
@@ -10462,7 +10370,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -10530,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D2" s="13">
         <v>1000</v>
@@ -10585,7 +10493,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -10643,7 +10551,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -10701,7 +10609,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -10759,7 +10667,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -10817,7 +10725,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -10875,7 +10783,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -10933,7 +10841,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -10991,7 +10899,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D26" s="6">
         <v>1000</v>
@@ -11407,7 +11315,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -11465,7 +11373,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -11523,7 +11431,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D53" s="6">
         <v>3</v>
@@ -11581,7 +11489,7 @@
         <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -11639,7 +11547,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -11697,7 +11605,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D62" s="6">
         <v>3</v>
@@ -14778,7 +14686,7 @@
         <v>add_task_progress "106846",15001,100000000</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -14797,7 +14705,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -14853,7 +14761,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="47" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:6">
